--- a/Junk/WFRP_NPC_GEN_DF.xlsx
+++ b/Junk/WFRP_NPC_GEN_DF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickkirkby/Documents/GitHub/WFRP_NPC_GEN/Junk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7083B568-F8ED-0640-A66E-85CE476EAE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE3251D-B589-AD48-8537-E44A06387AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
